--- a/biology/Zoologie/Caproidae/Caproidae.xlsx
+++ b/biology/Zoologie/Caproidae/Caproidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caproidae sont une famille de poissons abyssaux de l'ordre des Perciformes et dont les espèces sont communément appelées Poissons-sangliers. 
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 sous-famille Antigoniinae
@@ -545,7 +559,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon FishBase :
 genre Antigonia
@@ -563,7 +579,7 @@
 Antigonia undulata  Parin &amp; Borodulina, 2005
 Antigonia xenolepis  Parin &amp; Borodulina, 1986
 genre Capros
-Capros aper  (Linnaeus, 1758) - Sanglier de mer, appelé aussi Piranneau ou Soleil dans la Manche[2]</t>
+Capros aper  (Linnaeus, 1758) - Sanglier de mer, appelé aussi Piranneau ou Soleil dans la Manche</t>
         </is>
       </c>
     </row>
